--- a/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62D8F0B-AD8B-466E-9759-C0A8A35E786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{449B520D-144F-4FBA-AD3E-5676237D03B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B841BEC-7093-40BC-B908-255BC2C950C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C94C19D1-87E3-4FF6-BC7E-9292F615610B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>93,55%</t>
+    <t>94,21%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -85,16 +85,19 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>93,79%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,22 +109,25 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>5,79%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>6,21%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -133,7 +139,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,47%</t>
+    <t>90,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -142,13 +148,13 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>85,13%</t>
+    <t>84,86%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>92,28%</t>
+    <t>92,4%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -157,19 +163,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,53%</t>
+    <t>9,36%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,87%</t>
+    <t>15,14%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,72%</t>
+    <t>7,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -199,16 +205,16 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>93,89%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>99,02%</t>
@@ -217,19 +223,19 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -238,16 +244,16 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -262,13 +268,13 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,61%</t>
+    <t>98,15%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,9%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -277,13 +283,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -292,13 +298,13 @@
     <t>97,84%</t>
   </si>
   <si>
-    <t>89,85%</t>
+    <t>89,0%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>95,39%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -307,13 +313,13 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>10,15%</t>
+    <t>11,0%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -334,10 +340,10 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -346,10 +352,10 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
@@ -358,55 +364,67 @@
     <t>99,05%</t>
   </si>
   <si>
+    <t>94,48%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,65%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
+    <t>96,7%</t>
+  </si>
+  <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>96,1%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -418,19 +436,19 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,46%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -439,13 +457,13 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -454,7 +472,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>1,78%</t>
   </si>
 </sst>
 </file>
@@ -866,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9FBB7B-7B05-42F4-B3ED-7C8287A1CE39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45E7362-E79D-4F60-B300-EF0AE8414D47}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1011,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -1020,19 +1038,19 @@
         <v>279406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -1041,13 +1059,13 @@
         <v>2684</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1056,13 +1074,13 @@
         <v>4287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1071,13 +1089,13 @@
         <v>6971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,13 +1110,13 @@
         <v>118572</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>164</v>
@@ -1107,13 +1125,13 @@
         <v>167804</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>288</v>
@@ -1122,18 +1140,18 @@
         <v>286377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1163,13 @@
         <v>53250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1160,13 +1178,13 @@
         <v>28158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -1175,19 +1193,19 @@
         <v>81408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1196,13 +1214,13 @@
         <v>996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1211,13 +1229,13 @@
         <v>864</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1226,13 +1244,13 @@
         <v>1860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,13 +1265,13 @@
         <v>54246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -1262,13 +1280,13 @@
         <v>29022</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>85</v>
@@ -1277,18 +1295,18 @@
         <v>83268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1300,13 +1318,13 @@
         <v>10210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1315,13 +1333,13 @@
         <v>7413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1330,19 +1348,19 @@
         <v>17623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1351,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1366,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1381,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1420,13 @@
         <v>10210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1417,13 +1435,13 @@
         <v>7413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1432,13 +1450,13 @@
         <v>17623</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1473,13 @@
         <v>179348</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -1470,13 +1488,13 @@
         <v>199089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>381</v>
@@ -1485,19 +1503,19 @@
         <v>378438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -1506,13 +1524,13 @@
         <v>3680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1521,13 +1539,13 @@
         <v>5150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1536,13 +1554,13 @@
         <v>8830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1575,13 @@
         <v>183028</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>199</v>
@@ -1572,13 +1590,13 @@
         <v>204239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>390</v>
@@ -1587,18 +1605,18 @@
         <v>387268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84167E76-606E-47F0-A989-436E297A5B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAFEB2-D7CB-4003-89B1-AEE72A2D321D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1741,13 +1759,13 @@
         <v>166407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>227</v>
@@ -1756,13 +1774,13 @@
         <v>238666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>377</v>
@@ -1771,19 +1789,19 @@
         <v>405072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1792,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1807,13 +1825,13 @@
         <v>886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1822,13 +1840,13 @@
         <v>886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1861,13 @@
         <v>166407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -1858,13 +1876,13 @@
         <v>239552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>378</v>
@@ -1873,18 +1891,18 @@
         <v>405958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1896,13 +1914,13 @@
         <v>69868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -1911,13 +1929,13 @@
         <v>51298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -1926,19 +1944,19 @@
         <v>121166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1947,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1962,13 +1980,13 @@
         <v>1131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1977,13 +1995,13 @@
         <v>1131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2016,13 @@
         <v>69868</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -2013,13 +2031,13 @@
         <v>52429</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>115</v>
@@ -2028,18 +2046,18 @@
         <v>122297</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2069,13 @@
         <v>11929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2066,13 +2084,13 @@
         <v>7060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2081,19 +2099,19 @@
         <v>18989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2102,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2117,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2132,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2171,13 @@
         <v>11929</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2168,13 +2186,13 @@
         <v>7060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -2183,13 +2201,13 @@
         <v>18989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2224,13 @@
         <v>248204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -2221,13 +2239,13 @@
         <v>297024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>508</v>
@@ -2236,19 +2254,19 @@
         <v>545228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2257,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2272,13 +2290,13 @@
         <v>2017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2287,13 +2305,13 @@
         <v>2017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2326,13 @@
         <v>248204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>282</v>
@@ -2323,13 +2341,13 @@
         <v>299041</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>510</v>
@@ -2338,18 +2356,18 @@
         <v>547245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6BEE8A-1DE6-42CE-BFE5-1F7B7446AB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF346EF-7130-4346-BB2D-B3EA68D8C632}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2385,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2492,13 +2510,13 @@
         <v>138724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -2507,13 +2525,13 @@
         <v>182961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>304</v>
@@ -2522,19 +2540,19 @@
         <v>321686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2543,13 +2561,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2558,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2573,13 +2591,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2612,13 @@
         <v>140053</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>157</v>
@@ -2609,13 +2627,13 @@
         <v>182961</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>305</v>
@@ -2624,18 +2642,18 @@
         <v>323015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2647,13 +2665,13 @@
         <v>117996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -2662,13 +2680,13 @@
         <v>78788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -2677,19 +2695,19 @@
         <v>196784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2698,13 +2716,13 @@
         <v>955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2713,13 +2731,13 @@
         <v>1304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2728,13 +2746,13 @@
         <v>2259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2767,13 @@
         <v>118951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2764,13 +2782,13 @@
         <v>80092</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>185</v>
@@ -2779,18 +2797,18 @@
         <v>199043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2802,13 +2820,13 @@
         <v>20415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2817,13 +2835,13 @@
         <v>10281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2832,19 +2850,19 @@
         <v>30696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2853,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2868,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2883,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2922,13 @@
         <v>20415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2919,13 +2937,13 @@
         <v>10281</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -2934,13 +2952,13 @@
         <v>30696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2975,13 @@
         <v>277135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>236</v>
@@ -2972,13 +2990,13 @@
         <v>272031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>514</v>
@@ -2987,19 +3005,19 @@
         <v>549165</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -3008,13 +3026,13 @@
         <v>2284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3023,13 +3041,13 @@
         <v>1304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3038,13 +3056,13 @@
         <v>3589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3077,13 @@
         <v>279419</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>237</v>
@@ -3074,13 +3092,13 @@
         <v>273335</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>517</v>
@@ -3089,18 +3107,18 @@
         <v>552754</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449B520D-144F-4FBA-AD3E-5676237D03B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6617C3FA-146C-4ACE-BE73-8C9ACDD6180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C94C19D1-87E3-4FF6-BC7E-9292F615610B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23FBAE72-9EC9-473D-B2EB-26FE493BA32E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="143">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,64%</t>
+    <t>90,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -148,13 +148,13 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>82,44%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>92,4%</t>
+    <t>92,3%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -163,19 +163,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,36%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>17,56%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>7,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,55 +205,49 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -268,13 +262,13 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,15%</t>
+    <t>97,71%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -283,13 +277,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -298,13 +292,13 @@
     <t>97,84%</t>
   </si>
   <si>
-    <t>89,0%</t>
+    <t>89,19%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,39%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -313,13 +307,13 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>11,0%</t>
+    <t>10,81%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -340,10 +334,10 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -352,19 +346,19 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>94,48%</t>
+    <t>94,03%</t>
   </si>
   <si>
     <t>98,79%</t>
@@ -373,13 +367,13 @@
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,96%</t>
+    <t>97,91%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>5,97%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -388,43 +382,43 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>95,99%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>92,16%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>95,63%</t>
+    <t>96,05%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>3,95%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -436,19 +430,19 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,22%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,6%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -457,13 +451,13 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -472,7 +466,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,83%</t>
   </si>
 </sst>
 </file>
@@ -884,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45E7362-E79D-4F60-B300-EF0AE8414D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35999443-EE49-4A48-9F93-5F773CF82E64}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1479,7 +1473,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -1488,13 +1482,13 @@
         <v>199089</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>381</v>
@@ -1503,13 +1497,13 @@
         <v>378438</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1518,13 @@
         <v>3680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1539,13 +1533,13 @@
         <v>5150</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1554,13 +1548,13 @@
         <v>8830</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,7 +1610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAFEB2-D7CB-4003-89B1-AEE72A2D321D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82E9439-A513-4148-95AB-6FDA7CC64BAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1652,7 +1646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1756,13 +1750,13 @@
         <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>166407</v>
+        <v>166406</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -1774,10 +1768,10 @@
         <v>238666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
@@ -1789,10 +1783,10 @@
         <v>405072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -1816,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1825,13 +1819,13 @@
         <v>886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1840,13 +1834,13 @@
         <v>886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="7">
-        <v>166407</v>
+        <v>166406</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1917,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1929,10 +1923,10 @@
         <v>51298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>34</v>
@@ -1944,10 +1938,10 @@
         <v>121166</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>34</v>
@@ -1971,7 +1965,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1980,13 +1974,13 @@
         <v>1131</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1995,13 +1989,13 @@
         <v>1131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2066,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2087,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2126,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2141,7 +2135,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2227,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -2239,10 +2233,10 @@
         <v>297024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -2254,10 +2248,10 @@
         <v>545228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>34</v>
@@ -2281,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2290,13 +2284,13 @@
         <v>2017</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2305,13 +2299,13 @@
         <v>2017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF346EF-7130-4346-BB2D-B3EA68D8C632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DD0BE-755D-4A08-BA9C-B8696A872C2C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2510,10 +2504,10 @@
         <v>138724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -2528,7 +2522,7 @@
         <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2540,10 +2534,10 @@
         <v>321686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -2561,13 +2555,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2582,7 +2576,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2591,13 +2585,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,10 +2659,10 @@
         <v>117996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>34</v>
@@ -2680,10 +2674,10 @@
         <v>78788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>34</v>
@@ -2695,10 +2689,10 @@
         <v>196784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>34</v>
@@ -2716,13 +2710,13 @@
         <v>955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2731,13 +2725,13 @@
         <v>1304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2746,13 +2740,13 @@
         <v>2259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2847,7 @@
         <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2907,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2969,10 @@
         <v>277135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>34</v>
@@ -2990,10 +2984,10 @@
         <v>272031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -3005,13 +2999,13 @@
         <v>549165</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3020,13 @@
         <v>2284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3041,13 +3035,13 @@
         <v>1304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3056,13 +3050,13 @@
         <v>3589</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3112,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6617C3FA-146C-4ACE-BE73-8C9ACDD6180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1987F389-22E1-4E12-98CC-89AB40667060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23FBAE72-9EC9-473D-B2EB-26FE493BA32E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBCB2552-0EFD-4C48-99C1-9208701EC4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="143">
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,34 +70,31 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>93,79%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +103,25 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>6,21%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +133,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,88%</t>
+    <t>90,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -148,13 +142,13 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>82,44%</t>
+    <t>85,13%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>92,3%</t>
+    <t>92,28%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -163,19 +157,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>17,56%</t>
+    <t>14,87%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,7%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,55 +199,61 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
     <t>98,73%</t>
@@ -262,13 +262,13 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -277,13 +277,13 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -292,13 +292,13 @@
     <t>97,84%</t>
   </si>
   <si>
-    <t>89,19%</t>
+    <t>89,85%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>95,38%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -307,13 +307,13 @@
     <t>2,16%</t>
   </si>
   <si>
-    <t>10,81%</t>
+    <t>10,15%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -334,91 +334,79 @@
     <t>99,33%</t>
   </si>
   <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>92,16%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>96,05%</t>
+    <t>96,1%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>7,84%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,95%</t>
+    <t>3,9%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -430,19 +418,19 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,17%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -451,13 +439,13 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -466,7 +454,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,94%</t>
   </si>
 </sst>
 </file>
@@ -878,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35999443-EE49-4A48-9F93-5F773CF82E64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A13A50-CFBB-4D03-883F-80ADC7E05814}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1023,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>281</v>
@@ -1032,19 +1020,19 @@
         <v>279406</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -1053,13 +1041,13 @@
         <v>2684</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -1068,13 +1056,13 @@
         <v>4287</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1083,13 +1071,13 @@
         <v>6971</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,13 +1092,13 @@
         <v>118572</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>164</v>
@@ -1119,13 +1107,13 @@
         <v>167804</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>288</v>
@@ -1134,18 +1122,18 @@
         <v>286377</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1157,13 +1145,13 @@
         <v>53250</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1172,13 +1160,13 @@
         <v>28158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -1187,19 +1175,19 @@
         <v>81408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1208,13 +1196,13 @@
         <v>996</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1223,13 +1211,13 @@
         <v>864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1238,13 +1226,13 @@
         <v>1860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,13 +1247,13 @@
         <v>54246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -1274,13 +1262,13 @@
         <v>29022</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>85</v>
@@ -1289,18 +1277,18 @@
         <v>83268</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1312,13 +1300,13 @@
         <v>10210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1327,13 +1315,13 @@
         <v>7413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1342,19 +1330,19 @@
         <v>17623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1363,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1378,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1393,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1414,13 +1402,13 @@
         <v>10210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1429,13 +1417,13 @@
         <v>7413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -1444,13 +1432,13 @@
         <v>17623</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,13 +1455,13 @@
         <v>179348</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -1482,13 +1470,13 @@
         <v>199089</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>381</v>
@@ -1497,19 +1485,19 @@
         <v>378438</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
@@ -1518,10 +1506,10 @@
         <v>3680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>63</v>
@@ -1569,13 +1557,13 @@
         <v>183028</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>199</v>
@@ -1584,13 +1572,13 @@
         <v>204239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>390</v>
@@ -1599,13 +1587,13 @@
         <v>387268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82E9439-A513-4148-95AB-6FDA7CC64BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6270F-559D-4388-BEC8-E24706D78741}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1750,16 +1738,16 @@
         <v>150</v>
       </c>
       <c r="D4" s="7">
-        <v>166406</v>
+        <v>166407</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7">
         <v>227</v>
@@ -1774,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="7">
         <v>377</v>
@@ -1789,13 +1777,13 @@
         <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1804,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>77</v>
@@ -1822,7 +1810,7 @@
         <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>79</v>
@@ -1837,7 +1825,7 @@
         <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>81</v>
@@ -1852,16 +1840,16 @@
         <v>150</v>
       </c>
       <c r="D6" s="7">
-        <v>166406</v>
+        <v>166407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -1870,13 +1858,13 @@
         <v>239552</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>378</v>
@@ -1885,18 +1873,18 @@
         <v>405958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1908,13 +1896,13 @@
         <v>69868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -1929,7 +1917,7 @@
         <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -1944,13 +1932,13 @@
         <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1959,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>87</v>
@@ -1977,7 +1965,7 @@
         <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>89</v>
@@ -1992,7 +1980,7 @@
         <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>91</v>
@@ -2010,13 +1998,13 @@
         <v>69868</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -2025,13 +2013,13 @@
         <v>52429</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>115</v>
@@ -2040,18 +2028,18 @@
         <v>122297</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2063,13 +2051,13 @@
         <v>11929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2078,13 +2066,13 @@
         <v>7060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2093,19 +2081,19 @@
         <v>18989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2114,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>94</v>
@@ -2129,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>95</v>
@@ -2144,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2153,13 @@
         <v>11929</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2180,13 +2168,13 @@
         <v>7060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -2195,13 +2183,13 @@
         <v>18989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2206,13 @@
         <v>248204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7">
         <v>280</v>
@@ -2239,7 +2227,7 @@
         <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>508</v>
@@ -2254,13 +2242,13 @@
         <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2269,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>100</v>
@@ -2287,7 +2275,7 @@
         <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>102</v>
@@ -2302,7 +2290,7 @@
         <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>103</v>
@@ -2320,13 +2308,13 @@
         <v>248204</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>282</v>
@@ -2335,13 +2323,13 @@
         <v>299041</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>510</v>
@@ -2350,13 +2338,13 @@
         <v>547245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4DD0BE-755D-4A08-BA9C-B8696A872C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B4573-0F88-4022-BEB4-A07030873309}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,10 +2495,10 @@
         <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -2519,13 +2507,13 @@
         <v>182961</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7">
         <v>304</v>
@@ -2534,19 +2522,19 @@
         <v>321686</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2555,13 +2543,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2570,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2585,13 +2573,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2594,13 @@
         <v>140053</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>157</v>
@@ -2621,13 +2609,13 @@
         <v>182961</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>305</v>
@@ -2636,18 +2624,18 @@
         <v>323015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2659,13 +2647,13 @@
         <v>117996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -2674,13 +2662,13 @@
         <v>78788</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>183</v>
@@ -2689,19 +2677,19 @@
         <v>196784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2710,13 +2698,13 @@
         <v>955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2725,13 +2713,13 @@
         <v>1304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2740,13 +2728,13 @@
         <v>2259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2749,13 @@
         <v>118951</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>70</v>
@@ -2776,13 +2764,13 @@
         <v>80092</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>185</v>
@@ -2791,18 +2779,18 @@
         <v>199043</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2814,13 +2802,13 @@
         <v>20415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2829,13 +2817,13 @@
         <v>10281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2844,19 +2832,19 @@
         <v>30696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2865,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2880,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2895,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2904,13 @@
         <v>20415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2931,13 +2919,13 @@
         <v>10281</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -2946,13 +2934,13 @@
         <v>30696</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2957,13 @@
         <v>277135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>236</v>
@@ -2984,13 +2972,13 @@
         <v>272031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>514</v>
@@ -2999,19 +2987,19 @@
         <v>549165</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -3020,13 +3008,13 @@
         <v>2284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3035,13 +3023,13 @@
         <v>1304</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3050,13 +3038,13 @@
         <v>3589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3059,13 @@
         <v>279419</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>237</v>
@@ -3086,13 +3074,13 @@
         <v>273335</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>517</v>
@@ -3101,13 +3089,13 @@
         <v>552754</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1987F389-22E1-4E12-98CC-89AB40667060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E50D688-E5FC-452A-BBA5-B647C87F5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBCB2552-0EFD-4C48-99C1-9208701EC4B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7F8D6A44-047F-4D91-B45F-BC423DF0C226}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A13A50-CFBB-4D03-883F-80ADC7E05814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0789C73B-ED67-4B73-AD1B-F3764861D80D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6270F-559D-4388-BEC8-E24706D78741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C355E866-7629-4FCC-AF11-BF15050D5D4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920B4573-0F88-4022-BEB4-A07030873309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1377E6E5-0366-4A66-896F-E14DE82CE0BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
